--- a/0. Source Layer/components/reports/T.C._Ziraat_Bank,_Sofia_Branch(Bank).xlsx
+++ b/0. Source Layer/components/reports/T.C._Ziraat_Bank,_Sofia_Branch(Bank).xlsx
@@ -567,21 +567,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6a05f98f-100f-42d9-86b7-a0d589eccbb5</t>
+          <t>7f2d17d3-13fd-4f18-a678-5805ab5fa44d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Verena Minerals Corp.</t>
+          <t>Haemacure Corp.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10/10/1981</t>
+          <t>12/8/1993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -590,21 +590,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>266-884-5949</t>
+          <t>757-765-4803</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sales@verenamineralscorp.org</t>
+          <t>info@haemacurecorp.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -618,112 +618,112 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>$62,338,478,677.00</t>
+          <t>$23,571,373,627.00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>$51,800,331,932.00</t>
+          <t>$86,560,693,303.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$26,670,722,944.00</t>
+          <t>$68,023,342,774.00</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>$35,572,063,968.00</t>
+          <t>$39,887,050,225.00</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>95774205207</v>
+        <v>54638962919</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>$42,107,375,462.00</t>
+          <t>$73,303,180,713.00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>4532321535632003</t>
+          <t>4556263718423910</t>
         </is>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>$41,402,752,650.00</t>
+          <t>$86,287,515,350.00</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>$71,527,759,234.00</t>
+          <t>$31,667,059,225.00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>$5,836,764,127.00</t>
+          <t>$60,865,285,141.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2d3d1c8b-3cc1-4850-a919-ba4d6cb09075</t>
+          <t>27ce7b74-7d6a-4d13-b91e-814f61dd179d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tele Sudeste Celular Participacoes S.A.</t>
+          <t>ABB Ltd.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3/4/1976</t>
+          <t>8/20/1984</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>978-489-1684</t>
+          <t>688-160-3651</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>contact@telesudestecelularparticipacoessa.org</t>
+          <t>marketing@abbltd.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -737,69 +737,69 @@
         </is>
       </c>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>$77,127,677,967.00</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>$68,489,424,463.00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$9,721,841,962.00</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>9</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>$37,119,475,207.00</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>74058618012</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>$72,342,803,701.00</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>$92,701,536,185.00</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$97,929,569,552.00</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>6</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>$35,897,516,258.00</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>74198838287</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8</v>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>$28,033,993,328.00</t>
+          <t>$95,256,703,565.00</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>4716490218494466</t>
+          <t>4556182859177012</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>$60,610,471,599.00</t>
+          <t>$53,999,479,516.00</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>$36,648,560,248.00</t>
+          <t>$4,934,976,669.00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>$85,217,958,536.00</t>
+          <t>$49,993,873,289.00</t>
         </is>
       </c>
     </row>
